--- a/dataset_beras.xlsx
+++ b/dataset_beras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undipmail-my.sharepoint.com/personal/alfian_students_undip_ac_id/Documents/Documents/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{B11EEB5B-31DC-49A9-921F-F43A3452827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA683DC6-6E01-4FE1-B7E9-E1D076DF8CE1}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{B11EEB5B-31DC-49A9-921F-F43A3452827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B62B9141-779E-4F3C-AAD9-EE0728B2FB99}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="4340" windowWidth="9260" windowHeight="5730" xr2:uid="{22CCE8D4-3F1B-4483-BEBE-DB480016DA95}"/>
+    <workbookView xWindow="160" yWindow="4320" windowWidth="9260" windowHeight="5730" xr2:uid="{22CCE8D4-3F1B-4483-BEBE-DB480016DA95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4E7793-CBC8-4622-8C5D-CAAEC0839A3F}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,6 +1327,496 @@
         <v>0.34</v>
       </c>
     </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>42539</v>
+      </c>
+      <c r="C67">
+        <v>80</v>
+      </c>
+      <c r="D67">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>47422</v>
+      </c>
+      <c r="C68">
+        <v>90</v>
+      </c>
+      <c r="D68">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>51496</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>58636</v>
+      </c>
+      <c r="C70">
+        <v>120</v>
+      </c>
+      <c r="D70">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>54790</v>
+      </c>
+      <c r="C71">
+        <v>115</v>
+      </c>
+      <c r="D71">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>55480</v>
+      </c>
+      <c r="C72">
+        <v>120</v>
+      </c>
+      <c r="D72">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>68268</v>
+      </c>
+      <c r="C73">
+        <v>150</v>
+      </c>
+      <c r="D73">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>72279</v>
+      </c>
+      <c r="C74">
+        <v>165</v>
+      </c>
+      <c r="D74">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>32894</v>
+      </c>
+      <c r="C75">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>39565</v>
+      </c>
+      <c r="C76">
+        <v>70</v>
+      </c>
+      <c r="D76">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>28536</v>
+      </c>
+      <c r="C77">
+        <v>55</v>
+      </c>
+      <c r="D77">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>28248</v>
+      </c>
+      <c r="C78">
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>36330</v>
+      </c>
+      <c r="C79">
+        <v>70</v>
+      </c>
+      <c r="D79">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>39409</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>46425</v>
+      </c>
+      <c r="C81">
+        <v>105</v>
+      </c>
+      <c r="D81">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>45160</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>45012</v>
+      </c>
+      <c r="C83">
+        <v>110</v>
+      </c>
+      <c r="D83">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>51450</v>
+      </c>
+      <c r="C84">
+        <v>130</v>
+      </c>
+      <c r="D84">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>58408</v>
+      </c>
+      <c r="C85">
+        <v>150</v>
+      </c>
+      <c r="D85">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>59260</v>
+      </c>
+      <c r="C86">
+        <v>150</v>
+      </c>
+      <c r="D86">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>51953</v>
+      </c>
+      <c r="C87">
+        <v>135</v>
+      </c>
+      <c r="D87">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>61196</v>
+      </c>
+      <c r="C88">
+        <v>165</v>
+      </c>
+      <c r="D88">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>59631</v>
+      </c>
+      <c r="C89">
+        <v>160</v>
+      </c>
+      <c r="D89">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>46232</v>
+      </c>
+      <c r="C90">
+        <v>115</v>
+      </c>
+      <c r="D90">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>38855</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>34155</v>
+      </c>
+      <c r="C92">
+        <v>70</v>
+      </c>
+      <c r="D92">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>32121</v>
+      </c>
+      <c r="C93">
+        <v>65</v>
+      </c>
+      <c r="D93">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>30857</v>
+      </c>
+      <c r="C94">
+        <v>55</v>
+      </c>
+      <c r="D94">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>28976</v>
+      </c>
+      <c r="C95">
+        <v>50</v>
+      </c>
+      <c r="D95">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>52547</v>
+      </c>
+      <c r="C96">
+        <v>130</v>
+      </c>
+      <c r="D96">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>57150</v>
+      </c>
+      <c r="C97">
+        <v>145</v>
+      </c>
+      <c r="D97">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>60187</v>
+      </c>
+      <c r="C98">
+        <v>150</v>
+      </c>
+      <c r="D98">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>57080</v>
+      </c>
+      <c r="C99">
+        <v>140</v>
+      </c>
+      <c r="D99">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>47007</v>
+      </c>
+      <c r="C100">
+        <v>110</v>
+      </c>
+      <c r="D100">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>46638</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <v>0.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
